--- a/media/files/2017/05/507.xlsx
+++ b/media/files/2017/05/507.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\keenking.github.io\media\files\2017\05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkkkk\keenking.github.io\media\files\2017\05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -437,6 +437,310 @@
   </si>
   <si>
     <t>爱学外语的陈清泉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6934</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6794</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6492</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6393</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5616</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5563</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5516</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5202</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4723</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4620</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4378</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4243</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4233</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3876</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3865</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3793</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3781</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3662</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3626</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3552</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3550</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3436</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3232</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3205</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3074</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3043</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2814</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2784</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2772</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2669</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2626</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2614</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2611</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2599</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2550</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2458</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2444</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2440</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2390</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2290</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2232</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2045</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1825</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1808</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1695</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1640</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1624</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1609</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1602</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1475</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1405</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1233</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1195</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1169</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1165</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1154</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1095</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>870</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>795</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>783</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>754</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵铁裆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>635</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>605</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +1083,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,7 +1521,9 @@
         <v>50</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1227,7 +1536,7 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="4">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M35" si="0">SUM(C4:L4)</f>
         <v>120</v>
       </c>
       <c r="P4" s="7"/>
@@ -1244,7 +1553,9 @@
         <v>50</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1257,7 +1568,7 @@
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="4">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="P5" s="7"/>
@@ -1274,7 +1585,9 @@
         <v>50</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1287,7 +1600,7 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P6" s="7"/>
@@ -1304,7 +1617,9 @@
         <v>50</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1317,7 +1632,7 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P7" s="7"/>
@@ -1334,7 +1649,9 @@
         <v>50</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1347,7 +1664,7 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="4">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P8" s="7"/>
@@ -1364,7 +1681,9 @@
         <v>50</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1377,7 +1696,7 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="4">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P9" s="7"/>
@@ -1394,7 +1713,9 @@
         <v>50</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1407,7 +1728,7 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P10" s="7"/>
@@ -1424,7 +1745,9 @@
         <v>50</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1437,7 +1760,7 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P11" s="7"/>
@@ -1454,7 +1777,9 @@
         <v>50</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1467,7 +1792,7 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P12" s="7"/>
@@ -1484,7 +1809,9 @@
         <v>50</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1497,7 +1824,7 @@
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P13" s="7"/>
@@ -1514,7 +1841,9 @@
         <v>50</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1527,7 +1856,7 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
-        <f>SUM(C14:L14)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P14" s="7"/>
@@ -1544,7 +1873,9 @@
         <v>50</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1557,7 +1888,7 @@
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
-        <f>SUM(C15:L15)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P15" s="7"/>
@@ -1574,7 +1905,9 @@
         <v>50</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1587,7 +1920,7 @@
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
-        <f>SUM(C16:L16)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P16" s="7"/>
@@ -1617,7 +1950,7 @@
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
-        <f>SUM(C17:L17)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P17" s="7"/>
@@ -1634,7 +1967,9 @@
         <v>50</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1647,7 +1982,7 @@
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="4">
-        <f>SUM(C18:L18)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P18" s="7"/>
@@ -1664,7 +1999,9 @@
         <v>50</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1677,7 +2014,7 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
-        <f>SUM(C19:L19)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P19" s="7"/>
@@ -1694,7 +2031,9 @@
         <v>50</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1707,7 +2046,7 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
-        <f>SUM(C20:L20)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="P20" s="7"/>
@@ -1724,7 +2063,9 @@
         <v>30</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1737,7 +2078,7 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
-        <f>SUM(C21:L21)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="P21" s="7"/>
@@ -1754,7 +2095,9 @@
         <v>50</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1765,7 +2108,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P22" s="7"/>
@@ -1782,7 +2125,9 @@
         <v>50</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1793,7 +2138,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
-        <f>SUM(C23:L23)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P23" s="7"/>
@@ -1810,7 +2155,9 @@
         <v>50</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1821,7 +2168,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
-        <f>SUM(C24:L24)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P24" s="7"/>
@@ -1838,7 +2185,9 @@
         <v>50</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1849,7 +2198,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
-        <f>SUM(C25:L25)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P25" s="7"/>
@@ -1866,7 +2215,9 @@
         <v>50</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1877,7 +2228,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
-        <f>SUM(C26:L26)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P26" s="7"/>
@@ -1894,7 +2245,9 @@
         <v>50</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1905,7 +2258,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
-        <f>SUM(C27:L27)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P27" s="7"/>
@@ -1922,7 +2275,9 @@
         <v>50</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1933,7 +2288,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
-        <f>SUM(C28:L28)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P28" s="7"/>
@@ -1950,7 +2305,9 @@
         <v>50</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1961,7 +2318,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
-        <f>SUM(C29:L29)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P29" s="7"/>
@@ -1978,7 +2335,9 @@
         <v>50</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1989,7 +2348,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
-        <f>SUM(C30:L30)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P30" s="7"/>
@@ -2006,7 +2365,9 @@
         <v>50</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2017,7 +2378,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
-        <f>SUM(C31:L31)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P31" s="7"/>
@@ -2034,7 +2395,9 @@
         <v>50</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -2045,7 +2408,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
-        <f>SUM(C32:L32)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P32" s="7"/>
@@ -2062,7 +2425,9 @@
         <v>50</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2073,7 +2438,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
-        <f>SUM(C33:L33)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P33" s="7"/>
@@ -2090,7 +2455,9 @@
         <v>50</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2101,7 +2468,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
-        <f>SUM(C34:L34)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P34" s="7"/>
@@ -2118,7 +2485,9 @@
         <v>50</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2129,7 +2498,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
-        <f>SUM(C35:L35)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P35" s="7"/>
@@ -2146,7 +2515,9 @@
         <v>50</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2157,7 +2528,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
-        <f>SUM(C36:L36)</f>
+        <f t="shared" ref="M36:M67" si="1">SUM(C36:L36)</f>
         <v>60</v>
       </c>
       <c r="P36" s="7"/>
@@ -2174,7 +2545,9 @@
         <v>50</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>158</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2185,7 +2558,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
-        <f>SUM(C37:L37)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P37" s="7"/>
@@ -2202,7 +2575,9 @@
         <v>50</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2213,7 +2588,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
-        <f>SUM(C38:L38)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P38" s="7"/>
@@ -2230,7 +2605,9 @@
         <v>50</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2241,7 +2618,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
-        <f>SUM(C39:L39)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P39" s="7"/>
@@ -2258,7 +2635,9 @@
         <v>50</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2269,7 +2648,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
-        <f>SUM(C40:L40)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P40" s="7"/>
@@ -2286,7 +2665,9 @@
         <v>50</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2297,7 +2678,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
-        <f>SUM(C41:L41)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2312,7 +2693,9 @@
         <v>50</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2323,7 +2706,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
-        <f>SUM(C42:L42)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P42" s="7"/>
@@ -2340,7 +2723,9 @@
         <v>50</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2351,7 +2736,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
-        <f>SUM(C43:L43)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2366,7 +2751,9 @@
         <v>50</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -2377,7 +2764,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
-        <f>SUM(C44:L44)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2392,7 +2779,9 @@
         <v>50</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -2403,7 +2792,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
-        <f>SUM(C45:L45)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2418,7 +2807,9 @@
         <v>50</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2429,7 +2820,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
-        <f>SUM(C46:L46)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2444,7 +2835,9 @@
         <v>50</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -2455,7 +2848,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
-        <f>SUM(C47:L47)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2470,7 +2863,9 @@
         <v>50</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -2481,7 +2876,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
-        <f>SUM(C48:L48)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2496,7 +2891,9 @@
         <v>50</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2507,7 +2904,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
-        <f>SUM(C49:L49)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2522,7 +2919,9 @@
         <v>50</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -2533,7 +2932,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
-        <f>SUM(C50:L50)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P50" s="7"/>
@@ -2550,7 +2949,9 @@
         <v>50</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -2561,7 +2962,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
-        <f>SUM(C51:L51)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2576,7 +2977,9 @@
         <v>50</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2587,7 +2990,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
-        <f>SUM(C52:L52)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P52" s="7"/>
@@ -2604,7 +3007,9 @@
         <v>50</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -2615,7 +3020,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
-        <f>SUM(C53:L53)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P53" s="7"/>
@@ -2632,7 +3037,9 @@
         <v>50</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -2643,7 +3050,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
-        <f>SUM(C54:L54)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P54" s="7"/>
@@ -2660,7 +3067,9 @@
         <v>50</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -2671,7 +3080,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
-        <f>SUM(C55:L55)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P55" s="7"/>
@@ -2688,7 +3097,9 @@
         <v>50</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -2699,7 +3110,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
-        <f>SUM(C56:L56)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P56" s="7"/>
@@ -2716,7 +3127,9 @@
         <v>30</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -2727,7 +3140,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
-        <f>SUM(C57:L57)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="P57" s="7"/>
@@ -2744,7 +3157,9 @@
         <v>30</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -2755,7 +3170,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
-        <f>SUM(C58:L58)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P58" s="7"/>
@@ -2772,7 +3187,9 @@
         <v>30</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -2783,7 +3200,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
-        <f>SUM(C59:L59)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P59" s="7"/>
@@ -2800,7 +3217,9 @@
         <v>30</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -2811,7 +3230,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
-        <f>SUM(C60:L60)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P60" s="7"/>
@@ -2828,7 +3247,9 @@
         <v>30</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -2839,7 +3260,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
-        <f>SUM(C61:L61)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P61" s="7"/>
@@ -2856,7 +3277,9 @@
         <v>30</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>148</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -2867,7 +3290,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
-        <f>SUM(C62:L62)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P62" s="7"/>
@@ -2884,7 +3307,9 @@
         <v>30</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -2895,7 +3320,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
-        <f>SUM(C63:L63)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P63" s="7"/>
@@ -2912,7 +3337,9 @@
         <v>30</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -2923,7 +3350,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
-        <f>SUM(C64:L64)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P64" s="7"/>
@@ -2940,7 +3367,9 @@
         <v>30</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -2951,7 +3380,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
-        <f>SUM(C65:L65)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -2966,7 +3395,9 @@
         <v>30</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -2977,7 +3408,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
-        <f>SUM(C66:L66)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P66" s="7"/>
@@ -2994,7 +3425,9 @@
         <v>30</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -3005,7 +3438,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
-        <f>SUM(C67:L67)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="P67" s="7"/>
@@ -3022,7 +3455,9 @@
         <v>30</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3033,7 +3468,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
-        <f>SUM(C68:L68)</f>
+        <f t="shared" ref="M68:M99" si="2">SUM(C68:L68)</f>
         <v>35</v>
       </c>
       <c r="P68" s="7"/>
@@ -3050,7 +3485,9 @@
         <v>30</v>
       </c>
       <c r="D69" s="10"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -3061,7 +3498,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
-        <f>SUM(C69:L69)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P69" s="7"/>
@@ -3078,7 +3515,9 @@
         <v>30</v>
       </c>
       <c r="D70" s="10"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -3089,7 +3528,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
-        <f>SUM(C70:L70)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P70" s="7"/>
@@ -3106,7 +3545,9 @@
         <v>30</v>
       </c>
       <c r="D71" s="10"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -3117,7 +3558,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
-        <f>SUM(C71:L71)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P71" s="7"/>
@@ -3134,7 +3575,9 @@
         <v>30</v>
       </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -3145,7 +3588,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
-        <f>SUM(C72:L72)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P72" s="7"/>
@@ -3162,7 +3605,9 @@
         <v>30</v>
       </c>
       <c r="D73" s="10"/>
-      <c r="E73" s="21"/>
+      <c r="E73" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -3173,7 +3618,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
-        <f>SUM(C73:L73)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P73" s="7"/>
@@ -3190,7 +3635,9 @@
         <v>30</v>
       </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="21"/>
+      <c r="E74" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -3201,7 +3648,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
-        <f>SUM(C74:L74)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P74" s="7"/>
@@ -3218,7 +3665,9 @@
         <v>30</v>
       </c>
       <c r="D75" s="10"/>
-      <c r="E75" s="21"/>
+      <c r="E75" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -3229,7 +3678,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
-        <f>SUM(C75:L75)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P75" s="7"/>
@@ -3246,7 +3695,9 @@
         <v>0</v>
       </c>
       <c r="D76" s="10"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -3257,7 +3708,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
-        <f>SUM(C76:L76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3272,7 +3723,9 @@
         <v>0</v>
       </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="21"/>
+      <c r="E77" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -3283,7 +3736,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
-        <f>SUM(C77:L77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P77" s="7"/>
@@ -3300,7 +3753,9 @@
         <v>0</v>
       </c>
       <c r="D78" s="10"/>
-      <c r="E78" s="21"/>
+      <c r="E78" s="21" t="s">
+        <v>159</v>
+      </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -3311,7 +3766,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
-        <f>SUM(C78:L78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P78" s="7"/>
@@ -3328,7 +3783,9 @@
         <v>0</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="21"/>
+      <c r="E79" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -3339,7 +3796,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
-        <f>SUM(C79:L79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P79" s="7"/>
@@ -3356,7 +3813,9 @@
         <v>0</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="21"/>
+      <c r="E80" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -3367,7 +3826,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
-        <f>SUM(C80:L80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P80" s="7"/>
@@ -3384,7 +3843,9 @@
         <v>0</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="21"/>
+      <c r="E81" s="21" t="s">
+        <v>174</v>
+      </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -3395,11 +3856,19 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
-        <f>SUM(C81:L81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="11">
+        <v>730</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G84" s="23"/>
